--- a/Lab3/lab3_values.xlsx
+++ b/Lab3/lab3_values.xlsx
@@ -66,9 +66,6 @@
     <t>Pa (ms)</t>
   </si>
   <si>
-    <t>Ta (us)</t>
-  </si>
-  <si>
     <t>Task A, Task B (.1 us)</t>
   </si>
   <si>
@@ -183,6 +180,9 @@
   </si>
   <si>
     <t>Procedure 5</t>
+  </si>
+  <si>
+    <t>Ta (.1 us)</t>
   </si>
 </sst>
 </file>
@@ -378,76 +378,76 @@
   </cellStyleXfs>
   <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -739,21 +739,21 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -767,281 +767,281 @@
         <v>2.99</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
     </row>
     <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="18" t="s">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="21"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="24" t="s">
+      <c r="J8" s="24"/>
+      <c r="K8" s="25"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="23"/>
-      <c r="K8" s="25"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
+      <c r="B9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="K10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="14">
+      <c r="A11" s="13">
         <v>4</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <v>2</v>
       </c>
-      <c r="C11" s="15">
-        <v>0</v>
-      </c>
-      <c r="D11" s="15">
+      <c r="C11" s="14">
+        <v>0</v>
+      </c>
+      <c r="D11" s="14">
         <v>2</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="14">
         <v>2071</v>
       </c>
-      <c r="F11" s="11">
-        <v>0</v>
-      </c>
-      <c r="G11" s="11">
-        <v>0</v>
-      </c>
-      <c r="H11" s="11">
+      <c r="F11" s="10">
+        <v>0</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0</v>
+      </c>
+      <c r="H11" s="10">
         <v>3743</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="15">
         <v>349</v>
       </c>
-      <c r="J11" s="16">
-        <v>0</v>
-      </c>
-      <c r="K11" s="16">
+      <c r="J11" s="15">
+        <v>0</v>
+      </c>
+      <c r="K11" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="14">
+      <c r="A12" s="13">
         <v>32</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <v>2</v>
       </c>
-      <c r="C12" s="15">
-        <v>0</v>
-      </c>
-      <c r="D12" s="15">
+      <c r="C12" s="14">
+        <v>0</v>
+      </c>
+      <c r="D12" s="14">
         <v>2</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="14">
         <v>2071</v>
       </c>
-      <c r="F12" s="11">
-        <v>0</v>
-      </c>
-      <c r="G12" s="11">
-        <v>0</v>
-      </c>
-      <c r="H12" s="11">
+      <c r="F12" s="10">
+        <v>0</v>
+      </c>
+      <c r="G12" s="10">
+        <v>0</v>
+      </c>
+      <c r="H12" s="10">
         <v>3743</v>
       </c>
-      <c r="I12" s="16">
-        <v>0</v>
-      </c>
-      <c r="J12" s="16">
-        <v>0</v>
-      </c>
-      <c r="K12" s="16">
+      <c r="I12" s="15">
+        <v>0</v>
+      </c>
+      <c r="J12" s="15">
+        <v>0</v>
+      </c>
+      <c r="K12" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="14">
+      <c r="A13" s="13">
         <v>32</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <v>1</v>
       </c>
-      <c r="C13" s="15">
-        <v>0</v>
-      </c>
-      <c r="D13" s="15">
+      <c r="C13" s="14">
+        <v>0</v>
+      </c>
+      <c r="D13" s="14">
         <v>2</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="14">
         <v>2068</v>
       </c>
-      <c r="F13" s="11">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11">
-        <v>0</v>
-      </c>
-      <c r="H13" s="11">
+      <c r="F13" s="10">
+        <v>0</v>
+      </c>
+      <c r="G13" s="10">
+        <v>0</v>
+      </c>
+      <c r="H13" s="10">
         <v>3743</v>
       </c>
-      <c r="I13" s="16">
-        <v>0</v>
-      </c>
-      <c r="J13" s="16">
-        <v>0</v>
-      </c>
-      <c r="K13" s="16">
+      <c r="I13" s="15">
+        <v>0</v>
+      </c>
+      <c r="J13" s="15">
+        <v>0</v>
+      </c>
+      <c r="K13" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="14">
+      <c r="A14" s="13">
         <v>32</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="10">
         <v>10</v>
       </c>
-      <c r="C14" s="15">
-        <v>0</v>
-      </c>
-      <c r="D14" s="15">
+      <c r="C14" s="14">
+        <v>0</v>
+      </c>
+      <c r="D14" s="14">
         <v>2</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="14">
         <v>2071</v>
       </c>
-      <c r="F14" s="11">
-        <v>0</v>
-      </c>
-      <c r="G14" s="11">
-        <v>0</v>
-      </c>
-      <c r="H14" s="11">
+      <c r="F14" s="10">
+        <v>0</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0</v>
+      </c>
+      <c r="H14" s="10">
         <v>3743</v>
       </c>
-      <c r="I14" s="16">
-        <v>0</v>
-      </c>
-      <c r="J14" s="16">
-        <v>0</v>
-      </c>
-      <c r="K14" s="16">
+      <c r="I14" s="15">
+        <v>0</v>
+      </c>
+      <c r="J14" s="15">
+        <v>0</v>
+      </c>
+      <c r="K14" s="15">
         <v>0</v>
       </c>
     </row>
